--- a/BOM_Board1_PCB1-2.xlsx
+++ b/BOM_Board1_PCB1-2.xlsx
@@ -11,10 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="84">
-  <si>
-    <t>No.</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="63">
   <si>
     <t>Comment</t>
   </si>
@@ -25,9 +22,6 @@
     <t>Footprint</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>10uF</t>
   </si>
   <si>
@@ -37,27 +31,18 @@
     <t>C0603</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
     <t>100nF</t>
   </si>
   <si>
     <t>C2,C6,C8,C9,C10</t>
   </si>
   <si>
-    <t>3</t>
-  </si>
-  <si>
     <t>1uF</t>
   </si>
   <si>
     <t>C3</t>
   </si>
   <si>
-    <t>4</t>
-  </si>
-  <si>
     <t>LESD5D5.0CT1G</t>
   </si>
   <si>
@@ -67,9 +52,6 @@
     <t>SOD-523_L1.2-W0.8-LS1.6-BI</t>
   </si>
   <si>
-    <t>5</t>
-  </si>
-  <si>
     <t>1N5819HW-7-F</t>
   </si>
   <si>
@@ -79,9 +61,6 @@
     <t>SOD-123_L2.7-W1.6-LS3.7-RD</t>
   </si>
   <si>
-    <t>6</t>
-  </si>
-  <si>
     <t>KH-2.54PH180-1X22P-L11.5</t>
   </si>
   <si>
@@ -91,9 +70,6 @@
     <t>HDR-TH_22P-P2.54-V-M</t>
   </si>
   <si>
-    <t>7</t>
-  </si>
-  <si>
     <t>NCD0805R1</t>
   </si>
   <si>
@@ -106,9 +82,6 @@
     <t>LED0805-R-RD</t>
   </si>
   <si>
-    <t>8</t>
-  </si>
-  <si>
     <t>10kΩ</t>
   </si>
   <si>
@@ -118,27 +91,18 @@
     <t>R0603</t>
   </si>
   <si>
-    <t>9</t>
-  </si>
-  <si>
     <t>5.1kΩ</t>
   </si>
   <si>
     <t>R3,R4</t>
   </si>
   <si>
-    <t>10</t>
-  </si>
-  <si>
     <t>75Ω</t>
   </si>
   <si>
     <t>R5</t>
   </si>
   <si>
-    <t>11</t>
-  </si>
-  <si>
     <t>PTS810SJG250SMTRLFS</t>
   </si>
   <si>
@@ -154,9 +118,6 @@
     <t>SW-SMD_4P_PTS810SJM250SMTRLFS</t>
   </si>
   <si>
-    <t>12</t>
-  </si>
-  <si>
     <t>ESP32-S3-WROOM-1-N16R2</t>
   </si>
   <si>
@@ -166,9 +127,6 @@
     <t>WIRELM-SMD_ESP32-S3-WROOM-1</t>
   </si>
   <si>
-    <t>13</t>
-  </si>
-  <si>
     <t>RT9080-33GJ5</t>
   </si>
   <si>
@@ -178,9 +136,6 @@
     <t>TSOT-23-5_L2.9-W1.6-P0.95-LS2.8-BL</t>
   </si>
   <si>
-    <t>14</t>
-  </si>
-  <si>
     <t>LIS2DH12TR</t>
   </si>
   <si>
@@ -190,9 +145,6 @@
     <t>LGA-12_L2.0-W2.0-P0.50-BL</t>
   </si>
   <si>
-    <t>15</t>
-  </si>
-  <si>
     <t>BME280</t>
   </si>
   <si>
@@ -202,9 +154,6 @@
     <t>LGA-8_BME280_BL</t>
   </si>
   <si>
-    <t>16</t>
-  </si>
-  <si>
     <t>VEML6040A3OG</t>
   </si>
   <si>
@@ -214,9 +163,6 @@
     <t>SENSOR_SMD_VEML6040A3OG</t>
   </si>
   <si>
-    <t>17</t>
-  </si>
-  <si>
     <t>HS96L03W2C03</t>
   </si>
   <si>
@@ -226,9 +172,6 @@
     <t>OLED-TH_L27.8-W27.2-P2.54_C9900033791</t>
   </si>
   <si>
-    <t>18</t>
-  </si>
-  <si>
     <t>MCP23S17-E/ML</t>
   </si>
   <si>
@@ -238,9 +181,6 @@
     <t>QFN-28_L6.0-W6.0-P0.65-BL-EP</t>
   </si>
   <si>
-    <t>19</t>
-  </si>
-  <si>
     <t>MKDN512GCL-ZAA</t>
   </si>
   <si>
@@ -248,9 +188,6 @@
   </si>
   <si>
     <t>LGA-16_L12.5-W9.0-P1.27-TL-EP</t>
-  </si>
-  <si>
-    <t>20</t>
   </si>
   <si>
     <t>TYPE-C16PIN</t>
@@ -639,16 +576,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
-    <col min="1" max="4" width="20" customWidth="1"/>
+    <col min="1" max="3" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -658,308 +595,245 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
+      <c r="B3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>8</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
         <v>9</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>10</v>
       </c>
-      <c r="D3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="B5" t="s">
         <v>11</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C5" t="s">
         <v>12</v>
       </c>
-      <c r="C4" t="s">
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>13</v>
       </c>
-      <c r="D4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="B6" t="s">
         <v>14</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C6" t="s">
         <v>15</v>
       </c>
-      <c r="C5" t="s">
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>16</v>
       </c>
-      <c r="D5" t="s">
+      <c r="B7" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="C7" t="s">
         <v>18</v>
       </c>
-      <c r="B6" t="s">
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>19</v>
       </c>
-      <c r="C6" t="s">
+      <c r="B8" t="s">
         <v>20</v>
-      </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>26</v>
-      </c>
-      <c r="B8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" t="s">
         <v>29</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="B13" t="s">
         <v>31</v>
-      </c>
-      <c r="B10" t="s">
-        <v>32</v>
-      </c>
-      <c r="C10" t="s">
-        <v>33</v>
-      </c>
-      <c r="D10" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>35</v>
-      </c>
-      <c r="B11" t="s">
-        <v>36</v>
-      </c>
-      <c r="C11" t="s">
-        <v>37</v>
-      </c>
-      <c r="D11" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>38</v>
-      </c>
-      <c r="B12" t="s">
-        <v>39</v>
-      </c>
-      <c r="C12" t="s">
-        <v>40</v>
-      </c>
-      <c r="D12" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>41</v>
-      </c>
-      <c r="B13" t="s">
-        <v>42</v>
-      </c>
-      <c r="C13" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>44</v>
+      </c>
+      <c r="B19" t="s">
         <v>45</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C19" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>47</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B20" t="s">
         <v>48</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C20" t="s">
         <v>49</v>
       </c>
-      <c r="D16" t="s">
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="B21" t="s">
         <v>51</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C21" t="s">
         <v>52</v>
       </c>
-      <c r="C17" t="s">
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>53</v>
       </c>
-      <c r="D17" t="s">
+      <c r="B22" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="C22" t="s">
         <v>55</v>
       </c>
-      <c r="B18" t="s">
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>56</v>
       </c>
-      <c r="C18" t="s">
+      <c r="B23" t="s">
         <v>57</v>
       </c>
-      <c r="D18" t="s">
+      <c r="C23" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>59</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B24" t="s">
         <v>60</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C24" t="s">
         <v>61</v>
-      </c>
-      <c r="D19" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>63</v>
-      </c>
-      <c r="B20" t="s">
-        <v>64</v>
-      </c>
-      <c r="C20" t="s">
-        <v>65</v>
-      </c>
-      <c r="D20" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>67</v>
-      </c>
-      <c r="B21" t="s">
-        <v>68</v>
-      </c>
-      <c r="C21" t="s">
-        <v>69</v>
-      </c>
-      <c r="D21" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>71</v>
-      </c>
-      <c r="B22" t="s">
-        <v>72</v>
-      </c>
-      <c r="C22" t="s">
-        <v>73</v>
-      </c>
-      <c r="D22" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>75</v>
-      </c>
-      <c r="B23" t="s">
-        <v>76</v>
-      </c>
-      <c r="C23" t="s">
-        <v>77</v>
-      </c>
-      <c r="D23" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>79</v>
-      </c>
-      <c r="B24" t="s">
-        <v>80</v>
-      </c>
-      <c r="C24" t="s">
-        <v>81</v>
-      </c>
-      <c r="D24" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>83</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
